--- a/premium/src/main/resources/parent_ss_premium.xlsx
+++ b/premium/src/main/resources/parent_ss_premium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C6132B-05EE-CE40-8083-E76D60F753E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD662DBF-CBFE-4845-BE6B-00E037D46C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="740" windowWidth="17120" windowHeight="17240" xr2:uid="{68E9037E-C878-D04A-B33B-06E795984CB8}"/>
+    <workbookView xWindow="12160" yWindow="740" windowWidth="17120" windowHeight="17220" xr2:uid="{68E9037E-C878-D04A-B33B-06E795984CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,6 +69,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,28 +116,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE772BFD-34C7-6641-8B89-22DD773196A5}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J65"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,31 +492,31 @@
         <v>18</v>
       </c>
       <c r="B2" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C2" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D2" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E2" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F2" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G2" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H2" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I2" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J2" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -527,31 +524,31 @@
         <v>19</v>
       </c>
       <c r="B3" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C3" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D3" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E3" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F3" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G3" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H3" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I3" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J3" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -559,31 +556,31 @@
         <v>20</v>
       </c>
       <c r="B4" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C4" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D4" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E4" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F4" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G4" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H4" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I4" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J4" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -591,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C5" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D5" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E5" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F5" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G5" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H5" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I5" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J5" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -623,31 +620,31 @@
         <v>22</v>
       </c>
       <c r="B6" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C6" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D6" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E6" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F6" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G6" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H6" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I6" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J6" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -655,31 +652,31 @@
         <v>23</v>
       </c>
       <c r="B7" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C7" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D7" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E7" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F7" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G7" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H7" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I7" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J7" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -687,31 +684,31 @@
         <v>24</v>
       </c>
       <c r="B8" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C8" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D8" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E8" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F8" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G8" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H8" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I8" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J8" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -719,31 +716,31 @@
         <v>25</v>
       </c>
       <c r="B9" s="4">
-        <v>5647.5224922057596</v>
+        <v>5648</v>
       </c>
       <c r="C9" s="4">
-        <v>6687.2515238280303</v>
+        <v>6687</v>
       </c>
       <c r="D9" s="4">
-        <v>7241.4828257035197</v>
+        <v>7241</v>
       </c>
       <c r="E9" s="4">
-        <v>7815.3825796889496</v>
+        <v>7815</v>
       </c>
       <c r="F9" s="4">
-        <v>8405.4058958107307</v>
+        <v>8405</v>
       </c>
       <c r="G9" s="4">
-        <v>8841.0949690618309</v>
+        <v>8841</v>
       </c>
       <c r="H9" s="4">
-        <v>9455.2382872915496</v>
+        <v>9455</v>
       </c>
       <c r="I9" s="4">
-        <v>10060.9124970171</v>
+        <v>10061</v>
       </c>
       <c r="J9" s="4">
-        <v>12027.835929291999</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -751,31 +748,31 @@
         <v>26</v>
       </c>
       <c r="B10" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C10" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D10" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E10" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F10" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G10" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H10" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I10" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J10" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -783,31 +780,31 @@
         <v>27</v>
       </c>
       <c r="B11" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C11" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D11" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E11" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F11" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G11" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H11" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I11" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J11" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -815,31 +812,31 @@
         <v>28</v>
       </c>
       <c r="B12" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C12" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D12" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E12" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F12" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G12" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H12" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I12" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J12" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -847,31 +844,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C13" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D13" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E13" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F13" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G13" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H13" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I13" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J13" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,31 +876,31 @@
         <v>30</v>
       </c>
       <c r="B14" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C14" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D14" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E14" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F14" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G14" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H14" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I14" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J14" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -911,31 +908,31 @@
         <v>31</v>
       </c>
       <c r="B15" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C15" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D15" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E15" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F15" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G15" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H15" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I15" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J15" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -943,31 +940,31 @@
         <v>32</v>
       </c>
       <c r="B16" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C16" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D16" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E16" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F16" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G16" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H16" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I16" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J16" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -975,31 +972,31 @@
         <v>33</v>
       </c>
       <c r="B17" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C17" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D17" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E17" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F17" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G17" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H17" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I17" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J17" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1007,31 +1004,31 @@
         <v>34</v>
       </c>
       <c r="B18" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C18" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D18" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E18" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F18" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G18" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H18" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I18" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J18" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1039,31 +1036,31 @@
         <v>35</v>
       </c>
       <c r="B19" s="4">
-        <v>6985.4766433150498</v>
+        <v>6985</v>
       </c>
       <c r="C19" s="4">
-        <v>8277.5977446975794</v>
+        <v>8278</v>
       </c>
       <c r="D19" s="4">
-        <v>8966.3675476169592</v>
+        <v>8966</v>
       </c>
       <c r="E19" s="4">
-        <v>9679.5802786742006</v>
+        <v>9680</v>
       </c>
       <c r="F19" s="4">
-        <v>10412.830533193999</v>
+        <v>10413</v>
       </c>
       <c r="G19" s="4">
-        <v>10954.282226921499</v>
+        <v>10954</v>
       </c>
       <c r="H19" s="4">
-        <v>11717.507564122599</v>
+        <v>11718</v>
       </c>
       <c r="I19" s="4">
-        <v>12470.207934264699</v>
+        <v>12470</v>
       </c>
       <c r="J19" s="4">
-        <v>14914.5979573852</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1071,31 +1068,31 @@
         <v>36</v>
       </c>
       <c r="B20" s="4">
-        <v>8648.2163944916101</v>
+        <v>8648</v>
       </c>
       <c r="C20" s="4">
-        <v>10253.997218013499</v>
+        <v>10254</v>
       </c>
       <c r="D20" s="4">
-        <v>11109.9644645552</v>
+        <v>11110</v>
       </c>
       <c r="E20" s="4">
-        <v>11996.308109433399</v>
+        <v>11996</v>
       </c>
       <c r="F20" s="4">
-        <v>12907.553345108699</v>
+        <v>12908</v>
       </c>
       <c r="G20" s="4">
-        <v>13580.4413164613</v>
+        <v>13580</v>
       </c>
       <c r="H20" s="4">
-        <v>14528.938024078099</v>
+        <v>14529</v>
       </c>
       <c r="I20" s="4">
-        <v>15464.3548506733</v>
+        <v>15464</v>
       </c>
       <c r="J20" s="4">
-        <v>18502.1154910152</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1103,31 +1100,31 @@
         <v>37</v>
       </c>
       <c r="B21" s="4">
-        <v>8648.2163944916101</v>
+        <v>8648</v>
       </c>
       <c r="C21" s="4">
-        <v>10253.997218013499</v>
+        <v>10254</v>
       </c>
       <c r="D21" s="4">
-        <v>11109.9644645552</v>
+        <v>11110</v>
       </c>
       <c r="E21" s="4">
-        <v>11996.308109433399</v>
+        <v>11996</v>
       </c>
       <c r="F21" s="4">
-        <v>12907.553345108699</v>
+        <v>12908</v>
       </c>
       <c r="G21" s="4">
-        <v>13580.4413164613</v>
+        <v>13580</v>
       </c>
       <c r="H21" s="4">
-        <v>14528.938024078099</v>
+        <v>14529</v>
       </c>
       <c r="I21" s="4">
-        <v>15464.3548506733</v>
+        <v>15464</v>
       </c>
       <c r="J21" s="4">
-        <v>18502.1154910152</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1135,31 +1132,31 @@
         <v>38</v>
       </c>
       <c r="B22" s="4">
-        <v>8648.2163944916101</v>
+        <v>8648</v>
       </c>
       <c r="C22" s="4">
-        <v>10253.997218013499</v>
+        <v>10254</v>
       </c>
       <c r="D22" s="4">
-        <v>11109.9644645552</v>
+        <v>11110</v>
       </c>
       <c r="E22" s="4">
-        <v>11996.308109433399</v>
+        <v>11996</v>
       </c>
       <c r="F22" s="4">
-        <v>12907.553345108699</v>
+        <v>12908</v>
       </c>
       <c r="G22" s="4">
-        <v>13580.4413164613</v>
+        <v>13580</v>
       </c>
       <c r="H22" s="4">
-        <v>14528.938024078099</v>
+        <v>14529</v>
       </c>
       <c r="I22" s="4">
-        <v>15464.3548506733</v>
+        <v>15464</v>
       </c>
       <c r="J22" s="4">
-        <v>18502.1154910152</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1167,31 +1164,31 @@
         <v>39</v>
       </c>
       <c r="B23" s="4">
-        <v>8648.2163944916101</v>
+        <v>8648</v>
       </c>
       <c r="C23" s="4">
-        <v>10253.997218013499</v>
+        <v>10254</v>
       </c>
       <c r="D23" s="4">
-        <v>11109.9644645552</v>
+        <v>11110</v>
       </c>
       <c r="E23" s="4">
-        <v>11996.308109433399</v>
+        <v>11996</v>
       </c>
       <c r="F23" s="4">
-        <v>12907.553345108699</v>
+        <v>12908</v>
       </c>
       <c r="G23" s="4">
-        <v>13580.4413164613</v>
+        <v>13580</v>
       </c>
       <c r="H23" s="4">
-        <v>14528.938024078099</v>
+        <v>14529</v>
       </c>
       <c r="I23" s="4">
-        <v>15464.3548506733</v>
+        <v>15464</v>
       </c>
       <c r="J23" s="4">
-        <v>18502.1154910152</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1199,31 +1196,31 @@
         <v>40</v>
       </c>
       <c r="B24" s="4">
-        <v>8648.2163944916101</v>
+        <v>8648</v>
       </c>
       <c r="C24" s="4">
-        <v>10253.997218013499</v>
+        <v>10254</v>
       </c>
       <c r="D24" s="4">
-        <v>11109.9644645552</v>
+        <v>11110</v>
       </c>
       <c r="E24" s="4">
-        <v>11996.308109433399</v>
+        <v>11996</v>
       </c>
       <c r="F24" s="4">
-        <v>12907.553345108699</v>
+        <v>12908</v>
       </c>
       <c r="G24" s="4">
-        <v>13580.4413164613</v>
+        <v>13580</v>
       </c>
       <c r="H24" s="4">
-        <v>14528.938024078099</v>
+        <v>14529</v>
       </c>
       <c r="I24" s="4">
-        <v>15464.3548506733</v>
+        <v>15464</v>
       </c>
       <c r="J24" s="4">
-        <v>18502.1154910152</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1231,31 +1228,31 @@
         <v>41</v>
       </c>
       <c r="B25" s="4">
-        <v>10714.582777712199</v>
+        <v>10715</v>
       </c>
       <c r="C25" s="4">
-        <v>12710.1635715183</v>
+        <v>12710</v>
       </c>
       <c r="D25" s="4">
-        <v>13773.9150949544</v>
+        <v>13774</v>
       </c>
       <c r="E25" s="4">
-        <v>14875.416824531399</v>
+        <v>14875</v>
       </c>
       <c r="F25" s="4">
-        <v>16007.8649545151</v>
+        <v>16008</v>
       </c>
       <c r="G25" s="4">
-        <v>16844.095087759099</v>
+        <v>16844</v>
       </c>
       <c r="H25" s="4">
-        <v>18022.837407372201</v>
+        <v>18023</v>
       </c>
       <c r="I25" s="4">
-        <v>19185.324731926401</v>
+        <v>19185</v>
       </c>
       <c r="J25" s="4">
-        <v>22960.495478299501</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1263,31 +1260,31 @@
         <v>42</v>
       </c>
       <c r="B26" s="4">
-        <v>10714.582777712199</v>
+        <v>10715</v>
       </c>
       <c r="C26" s="4">
-        <v>12710.1635715183</v>
+        <v>12710</v>
       </c>
       <c r="D26" s="4">
-        <v>13773.9150949544</v>
+        <v>13774</v>
       </c>
       <c r="E26" s="4">
-        <v>14875.416824531399</v>
+        <v>14875</v>
       </c>
       <c r="F26" s="4">
-        <v>16007.8649545151</v>
+        <v>16008</v>
       </c>
       <c r="G26" s="4">
-        <v>16844.095087759099</v>
+        <v>16844</v>
       </c>
       <c r="H26" s="4">
-        <v>18022.837407372201</v>
+        <v>18023</v>
       </c>
       <c r="I26" s="4">
-        <v>19185.324731926401</v>
+        <v>19185</v>
       </c>
       <c r="J26" s="4">
-        <v>22960.495478299501</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1295,31 +1292,31 @@
         <v>43</v>
       </c>
       <c r="B27" s="4">
-        <v>10714.582777712199</v>
+        <v>10715</v>
       </c>
       <c r="C27" s="4">
-        <v>12710.1635715183</v>
+        <v>12710</v>
       </c>
       <c r="D27" s="4">
-        <v>13773.9150949544</v>
+        <v>13774</v>
       </c>
       <c r="E27" s="4">
-        <v>14875.416824531399</v>
+        <v>14875</v>
       </c>
       <c r="F27" s="4">
-        <v>16007.8649545151</v>
+        <v>16008</v>
       </c>
       <c r="G27" s="4">
-        <v>16844.095087759099</v>
+        <v>16844</v>
       </c>
       <c r="H27" s="4">
-        <v>18022.837407372201</v>
+        <v>18023</v>
       </c>
       <c r="I27" s="4">
-        <v>19185.324731926401</v>
+        <v>19185</v>
       </c>
       <c r="J27" s="4">
-        <v>22960.495478299501</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1327,31 +1324,31 @@
         <v>44</v>
       </c>
       <c r="B28" s="4">
-        <v>10714.582777712199</v>
+        <v>10715</v>
       </c>
       <c r="C28" s="4">
-        <v>12710.1635715183</v>
+        <v>12710</v>
       </c>
       <c r="D28" s="4">
-        <v>13773.9150949544</v>
+        <v>13774</v>
       </c>
       <c r="E28" s="4">
-        <v>14875.416824531399</v>
+        <v>14875</v>
       </c>
       <c r="F28" s="4">
-        <v>16007.8649545151</v>
+        <v>16008</v>
       </c>
       <c r="G28" s="4">
-        <v>16844.095087759099</v>
+        <v>16844</v>
       </c>
       <c r="H28" s="4">
-        <v>18022.837407372201</v>
+        <v>18023</v>
       </c>
       <c r="I28" s="4">
-        <v>19185.324731926401</v>
+        <v>19185</v>
       </c>
       <c r="J28" s="4">
-        <v>22960.495478299501</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1359,31 +1356,31 @@
         <v>45</v>
       </c>
       <c r="B29" s="4">
-        <v>10714.582777712199</v>
+        <v>10715</v>
       </c>
       <c r="C29" s="4">
-        <v>12710.1635715183</v>
+        <v>12710</v>
       </c>
       <c r="D29" s="4">
-        <v>13773.9150949544</v>
+        <v>13774</v>
       </c>
       <c r="E29" s="4">
-        <v>14875.416824531399</v>
+        <v>14875</v>
       </c>
       <c r="F29" s="4">
-        <v>16007.8649545151</v>
+        <v>16008</v>
       </c>
       <c r="G29" s="4">
-        <v>16844.095087759099</v>
+        <v>16844</v>
       </c>
       <c r="H29" s="4">
-        <v>18022.837407372201</v>
+        <v>18023</v>
       </c>
       <c r="I29" s="4">
-        <v>19185.324731926401</v>
+        <v>19185</v>
       </c>
       <c r="J29" s="4">
-        <v>22960.495478299501</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,31 +1388,31 @@
         <v>46</v>
       </c>
       <c r="B30" s="4">
-        <v>13282.5553222327</v>
+        <v>13283</v>
       </c>
       <c r="C30" s="4">
-        <v>15762.559222063501</v>
+        <v>15763</v>
       </c>
       <c r="D30" s="4">
-        <v>17084.5342254112</v>
+        <v>17085</v>
       </c>
       <c r="E30" s="4">
-        <v>18453.423219282198</v>
+        <v>18453</v>
       </c>
       <c r="F30" s="4">
-        <v>19860.770788186801</v>
+        <v>19861</v>
       </c>
       <c r="G30" s="4">
-        <v>20899.994054936</v>
+        <v>20900</v>
       </c>
       <c r="H30" s="4">
-        <v>22364.873632154598</v>
+        <v>22365</v>
       </c>
       <c r="I30" s="4">
-        <v>23809.552347918201</v>
+        <v>23810</v>
       </c>
       <c r="J30" s="4">
-        <v>28501.137976819598</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1423,31 +1420,31 @@
         <v>47</v>
       </c>
       <c r="B31" s="4">
-        <v>13282.5553222327</v>
+        <v>13283</v>
       </c>
       <c r="C31" s="4">
-        <v>15762.559222063501</v>
+        <v>15763</v>
       </c>
       <c r="D31" s="4">
-        <v>17084.5342254112</v>
+        <v>17085</v>
       </c>
       <c r="E31" s="4">
-        <v>18453.423219282198</v>
+        <v>18453</v>
       </c>
       <c r="F31" s="4">
-        <v>19860.770788186801</v>
+        <v>19861</v>
       </c>
       <c r="G31" s="4">
-        <v>20899.994054936</v>
+        <v>20900</v>
       </c>
       <c r="H31" s="4">
-        <v>22364.873632154598</v>
+        <v>22365</v>
       </c>
       <c r="I31" s="4">
-        <v>23809.552347918201</v>
+        <v>23810</v>
       </c>
       <c r="J31" s="4">
-        <v>28501.137976819598</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1455,31 +1452,31 @@
         <v>48</v>
       </c>
       <c r="B32" s="4">
-        <v>13282.5553222327</v>
+        <v>13283</v>
       </c>
       <c r="C32" s="4">
-        <v>15762.559222063501</v>
+        <v>15763</v>
       </c>
       <c r="D32" s="4">
-        <v>17084.5342254112</v>
+        <v>17085</v>
       </c>
       <c r="E32" s="4">
-        <v>18453.423219282198</v>
+        <v>18453</v>
       </c>
       <c r="F32" s="4">
-        <v>19860.770788186801</v>
+        <v>19861</v>
       </c>
       <c r="G32" s="4">
-        <v>20899.994054936</v>
+        <v>20900</v>
       </c>
       <c r="H32" s="4">
-        <v>22364.873632154598</v>
+        <v>22365</v>
       </c>
       <c r="I32" s="4">
-        <v>23809.552347918201</v>
+        <v>23810</v>
       </c>
       <c r="J32" s="4">
-        <v>28501.137976819598</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,31 +1484,31 @@
         <v>49</v>
       </c>
       <c r="B33" s="4">
-        <v>13282.5553222327</v>
+        <v>13283</v>
       </c>
       <c r="C33" s="4">
-        <v>15762.559222063501</v>
+        <v>15763</v>
       </c>
       <c r="D33" s="4">
-        <v>17084.5342254112</v>
+        <v>17085</v>
       </c>
       <c r="E33" s="4">
-        <v>18453.423219282198</v>
+        <v>18453</v>
       </c>
       <c r="F33" s="4">
-        <v>19860.770788186801</v>
+        <v>19861</v>
       </c>
       <c r="G33" s="4">
-        <v>20899.994054936</v>
+        <v>20900</v>
       </c>
       <c r="H33" s="4">
-        <v>22364.873632154598</v>
+        <v>22365</v>
       </c>
       <c r="I33" s="4">
-        <v>23809.552347918201</v>
+        <v>23810</v>
       </c>
       <c r="J33" s="4">
-        <v>28501.137976819598</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1519,31 +1516,31 @@
         <v>50</v>
       </c>
       <c r="B34" s="4">
-        <v>13282.5553222327</v>
+        <v>13283</v>
       </c>
       <c r="C34" s="4">
-        <v>15762.559222063501</v>
+        <v>15763</v>
       </c>
       <c r="D34" s="4">
-        <v>17084.5342254112</v>
+        <v>17085</v>
       </c>
       <c r="E34" s="4">
-        <v>18453.423219282198</v>
+        <v>18453</v>
       </c>
       <c r="F34" s="4">
-        <v>19860.770788186801</v>
+        <v>19861</v>
       </c>
       <c r="G34" s="4">
-        <v>20899.994054936</v>
+        <v>20900</v>
       </c>
       <c r="H34" s="4">
-        <v>22364.873632154598</v>
+        <v>22365</v>
       </c>
       <c r="I34" s="4">
-        <v>23809.552347918201</v>
+        <v>23810</v>
       </c>
       <c r="J34" s="4">
-        <v>28501.137976819598</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1551,31 +1548,31 @@
         <v>51</v>
       </c>
       <c r="B35" s="4">
-        <v>17226.723157057699</v>
+        <v>17227</v>
       </c>
       <c r="C35" s="4">
-        <v>20249.515333719399</v>
+        <v>20250</v>
       </c>
       <c r="D35" s="4">
-        <v>21951.073311887401</v>
+        <v>21951</v>
       </c>
       <c r="E35" s="4">
-        <v>23713.0158469952</v>
+        <v>23713</v>
       </c>
       <c r="F35" s="4">
-        <v>25524.459692650998</v>
+        <v>25524</v>
       </c>
       <c r="G35" s="4">
-        <v>26243.744861084098</v>
+        <v>26244</v>
       </c>
       <c r="H35" s="4">
-        <v>28085.617606370401</v>
+        <v>28086</v>
       </c>
       <c r="I35" s="4">
-        <v>29902.0907101271</v>
+        <v>29902</v>
       </c>
       <c r="J35" s="4">
-        <v>35801.076426384701</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1583,31 +1580,31 @@
         <v>52</v>
       </c>
       <c r="B36" s="4">
-        <v>17226.723157057699</v>
+        <v>17227</v>
       </c>
       <c r="C36" s="4">
-        <v>20249.515333719399</v>
+        <v>20250</v>
       </c>
       <c r="D36" s="4">
-        <v>21951.073311887401</v>
+        <v>21951</v>
       </c>
       <c r="E36" s="4">
-        <v>23713.0158469952</v>
+        <v>23713</v>
       </c>
       <c r="F36" s="4">
-        <v>25524.459692650998</v>
+        <v>25524</v>
       </c>
       <c r="G36" s="4">
-        <v>26243.744861084098</v>
+        <v>26244</v>
       </c>
       <c r="H36" s="4">
-        <v>28085.617606370401</v>
+        <v>28086</v>
       </c>
       <c r="I36" s="4">
-        <v>29902.0907101271</v>
+        <v>29902</v>
       </c>
       <c r="J36" s="4">
-        <v>35801.076426384701</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1615,31 +1612,31 @@
         <v>53</v>
       </c>
       <c r="B37" s="4">
-        <v>17226.723157057699</v>
+        <v>17227</v>
       </c>
       <c r="C37" s="4">
-        <v>20249.515333719399</v>
+        <v>20250</v>
       </c>
       <c r="D37" s="4">
-        <v>21951.073311887401</v>
+        <v>21951</v>
       </c>
       <c r="E37" s="4">
-        <v>23713.0158469952</v>
+        <v>23713</v>
       </c>
       <c r="F37" s="4">
-        <v>25524.459692650998</v>
+        <v>25524</v>
       </c>
       <c r="G37" s="4">
-        <v>26243.744861084098</v>
+        <v>26244</v>
       </c>
       <c r="H37" s="4">
-        <v>28085.617606370401</v>
+        <v>28086</v>
       </c>
       <c r="I37" s="4">
-        <v>29902.0907101271</v>
+        <v>29902</v>
       </c>
       <c r="J37" s="4">
-        <v>35801.076426384701</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1647,31 +1644,31 @@
         <v>54</v>
       </c>
       <c r="B38" s="4">
-        <v>17226.723157057699</v>
+        <v>17227</v>
       </c>
       <c r="C38" s="4">
-        <v>20249.515333719399</v>
+        <v>20250</v>
       </c>
       <c r="D38" s="4">
-        <v>21951.073311887401</v>
+        <v>21951</v>
       </c>
       <c r="E38" s="4">
-        <v>23713.0158469952</v>
+        <v>23713</v>
       </c>
       <c r="F38" s="4">
-        <v>25524.459692650998</v>
+        <v>25524</v>
       </c>
       <c r="G38" s="4">
-        <v>26243.744861084098</v>
+        <v>26244</v>
       </c>
       <c r="H38" s="4">
-        <v>28085.617606370401</v>
+        <v>28086</v>
       </c>
       <c r="I38" s="4">
-        <v>29902.0907101271</v>
+        <v>29902</v>
       </c>
       <c r="J38" s="4">
-        <v>35801.076426384701</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1679,31 +1676,31 @@
         <v>55</v>
       </c>
       <c r="B39" s="4">
-        <v>17226.723157057699</v>
+        <v>17227</v>
       </c>
       <c r="C39" s="4">
-        <v>20249.515333719399</v>
+        <v>20250</v>
       </c>
       <c r="D39" s="4">
-        <v>21951.073311887401</v>
+        <v>21951</v>
       </c>
       <c r="E39" s="4">
-        <v>23713.0158469952</v>
+        <v>23713</v>
       </c>
       <c r="F39" s="4">
-        <v>25524.459692650998</v>
+        <v>25524</v>
       </c>
       <c r="G39" s="4">
-        <v>26243.744861084098</v>
+        <v>26244</v>
       </c>
       <c r="H39" s="4">
-        <v>28085.617606370401</v>
+        <v>28086</v>
       </c>
       <c r="I39" s="4">
-        <v>29902.0907101271</v>
+        <v>29902</v>
       </c>
       <c r="J39" s="4">
-        <v>35801.076426384701</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1711,31 +1708,31 @@
         <v>56</v>
       </c>
       <c r="B40" s="4">
-        <v>25376.393426008799</v>
+        <v>25376</v>
       </c>
       <c r="C40" s="4">
-        <v>29840.5816831337</v>
+        <v>29841</v>
       </c>
       <c r="D40" s="4">
-        <v>32353.514991484401</v>
+        <v>32354</v>
       </c>
       <c r="E40" s="4">
-        <v>34955.626785899403</v>
+        <v>34956</v>
       </c>
       <c r="F40" s="4">
-        <v>37630.844224482498</v>
+        <v>37631</v>
       </c>
       <c r="G40" s="4">
-        <v>38693.115202697598</v>
+        <v>38693</v>
       </c>
       <c r="H40" s="4">
-        <v>41413.271336522899</v>
+        <v>41413</v>
       </c>
       <c r="I40" s="4">
-        <v>44095.916197715298</v>
+        <v>44096</v>
       </c>
       <c r="J40" s="4">
-        <v>52807.789599659802</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1743,31 +1740,31 @@
         <v>57</v>
       </c>
       <c r="B41" s="4">
-        <v>25376.393426008799</v>
+        <v>25376</v>
       </c>
       <c r="C41" s="4">
-        <v>29840.5816831337</v>
+        <v>29841</v>
       </c>
       <c r="D41" s="4">
-        <v>32353.514991484401</v>
+        <v>32354</v>
       </c>
       <c r="E41" s="4">
-        <v>34955.626785899403</v>
+        <v>34956</v>
       </c>
       <c r="F41" s="4">
-        <v>37630.844224482498</v>
+        <v>37631</v>
       </c>
       <c r="G41" s="4">
-        <v>38693.115202697598</v>
+        <v>38693</v>
       </c>
       <c r="H41" s="4">
-        <v>41413.271336522899</v>
+        <v>41413</v>
       </c>
       <c r="I41" s="4">
-        <v>44095.916197715298</v>
+        <v>44096</v>
       </c>
       <c r="J41" s="4">
-        <v>52807.789599659802</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1775,31 +1772,31 @@
         <v>58</v>
       </c>
       <c r="B42" s="4">
-        <v>25376.393426008799</v>
+        <v>25376</v>
       </c>
       <c r="C42" s="4">
-        <v>29840.5816831337</v>
+        <v>29841</v>
       </c>
       <c r="D42" s="4">
-        <v>32353.514991484401</v>
+        <v>32354</v>
       </c>
       <c r="E42" s="4">
-        <v>34955.626785899403</v>
+        <v>34956</v>
       </c>
       <c r="F42" s="4">
-        <v>37630.844224482498</v>
+        <v>37631</v>
       </c>
       <c r="G42" s="4">
-        <v>38693.115202697598</v>
+        <v>38693</v>
       </c>
       <c r="H42" s="4">
-        <v>41413.271336522899</v>
+        <v>41413</v>
       </c>
       <c r="I42" s="4">
-        <v>44095.916197715298</v>
+        <v>44096</v>
       </c>
       <c r="J42" s="4">
-        <v>52807.789599659802</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -1807,31 +1804,31 @@
         <v>59</v>
       </c>
       <c r="B43" s="4">
-        <v>25376.393426008799</v>
+        <v>25376</v>
       </c>
       <c r="C43" s="4">
-        <v>29840.5816831337</v>
+        <v>29841</v>
       </c>
       <c r="D43" s="4">
-        <v>32353.514991484401</v>
+        <v>32354</v>
       </c>
       <c r="E43" s="4">
-        <v>34955.626785899403</v>
+        <v>34956</v>
       </c>
       <c r="F43" s="4">
-        <v>37630.844224482498</v>
+        <v>37631</v>
       </c>
       <c r="G43" s="4">
-        <v>38693.115202697598</v>
+        <v>38693</v>
       </c>
       <c r="H43" s="4">
-        <v>41413.271336522899</v>
+        <v>41413</v>
       </c>
       <c r="I43" s="4">
-        <v>44095.916197715298</v>
+        <v>44096</v>
       </c>
       <c r="J43" s="4">
-        <v>52807.789599659802</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1839,31 +1836,31 @@
         <v>60</v>
       </c>
       <c r="B44" s="4">
-        <v>25376.393426008799</v>
+        <v>25376</v>
       </c>
       <c r="C44" s="4">
-        <v>29840.5816831337</v>
+        <v>29841</v>
       </c>
       <c r="D44" s="4">
-        <v>32353.514991484401</v>
+        <v>32354</v>
       </c>
       <c r="E44" s="4">
-        <v>34955.626785899403</v>
+        <v>34956</v>
       </c>
       <c r="F44" s="4">
-        <v>37630.844224482498</v>
+        <v>37631</v>
       </c>
       <c r="G44" s="4">
-        <v>38693.115202697598</v>
+        <v>38693</v>
       </c>
       <c r="H44" s="4">
-        <v>41413.271336522899</v>
+        <v>41413</v>
       </c>
       <c r="I44" s="4">
-        <v>44095.916197715298</v>
+        <v>44096</v>
       </c>
       <c r="J44" s="4">
-        <v>52807.789599659802</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -1871,31 +1868,31 @@
         <v>61</v>
       </c>
       <c r="B45" s="4">
-        <v>37111.882547210698</v>
+        <v>37112</v>
       </c>
       <c r="C45" s="4">
-        <v>43651.674781353599</v>
+        <v>43652</v>
       </c>
       <c r="D45" s="4">
-        <v>47332.9849744534</v>
+        <v>47333</v>
       </c>
       <c r="E45" s="4">
-        <v>51144.936784130703</v>
+        <v>51145</v>
       </c>
       <c r="F45" s="4">
-        <v>55063.984373928499</v>
+        <v>55064</v>
       </c>
       <c r="G45" s="4">
-        <v>56620.153400357704</v>
+        <v>56620</v>
       </c>
       <c r="H45" s="4">
-        <v>60605.033726866001</v>
+        <v>60605</v>
       </c>
       <c r="I45" s="4">
-        <v>64534.962085552201</v>
+        <v>64535</v>
       </c>
       <c r="J45" s="4">
-        <v>77297.381306547497</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1903,31 +1900,31 @@
         <v>62</v>
       </c>
       <c r="B46" s="4">
-        <v>37111.882547210698</v>
+        <v>37112</v>
       </c>
       <c r="C46" s="4">
-        <v>43651.674781353599</v>
+        <v>43652</v>
       </c>
       <c r="D46" s="4">
-        <v>47332.9849744534</v>
+        <v>47333</v>
       </c>
       <c r="E46" s="4">
-        <v>51144.936784130703</v>
+        <v>51145</v>
       </c>
       <c r="F46" s="4">
-        <v>55063.984373928499</v>
+        <v>55064</v>
       </c>
       <c r="G46" s="4">
-        <v>56620.153400357704</v>
+        <v>56620</v>
       </c>
       <c r="H46" s="4">
-        <v>60605.033726866001</v>
+        <v>60605</v>
       </c>
       <c r="I46" s="4">
-        <v>64534.962085552201</v>
+        <v>64535</v>
       </c>
       <c r="J46" s="4">
-        <v>77297.381306547497</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -1935,31 +1932,31 @@
         <v>63</v>
       </c>
       <c r="B47" s="4">
-        <v>37111.882547210698</v>
+        <v>37112</v>
       </c>
       <c r="C47" s="4">
-        <v>43651.674781353599</v>
+        <v>43652</v>
       </c>
       <c r="D47" s="4">
-        <v>47332.9849744534</v>
+        <v>47333</v>
       </c>
       <c r="E47" s="4">
-        <v>51144.936784130703</v>
+        <v>51145</v>
       </c>
       <c r="F47" s="4">
-        <v>55063.984373928499</v>
+        <v>55064</v>
       </c>
       <c r="G47" s="4">
-        <v>56620.153400357704</v>
+        <v>56620</v>
       </c>
       <c r="H47" s="4">
-        <v>60605.033726866001</v>
+        <v>60605</v>
       </c>
       <c r="I47" s="4">
-        <v>64534.962085552201</v>
+        <v>64535</v>
       </c>
       <c r="J47" s="4">
-        <v>77297.381306547497</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1967,31 +1964,31 @@
         <v>64</v>
       </c>
       <c r="B48" s="4">
-        <v>37111.882547210698</v>
+        <v>37112</v>
       </c>
       <c r="C48" s="4">
-        <v>43651.674781353599</v>
+        <v>43652</v>
       </c>
       <c r="D48" s="4">
-        <v>47332.9849744534</v>
+        <v>47333</v>
       </c>
       <c r="E48" s="4">
-        <v>51144.936784130703</v>
+        <v>51145</v>
       </c>
       <c r="F48" s="4">
-        <v>55063.984373928499</v>
+        <v>55064</v>
       </c>
       <c r="G48" s="4">
-        <v>56620.153400357704</v>
+        <v>56620</v>
       </c>
       <c r="H48" s="4">
-        <v>60605.033726866001</v>
+        <v>60605</v>
       </c>
       <c r="I48" s="4">
-        <v>64534.962085552201</v>
+        <v>64535</v>
       </c>
       <c r="J48" s="4">
-        <v>77297.381306547497</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -1999,31 +1996,31 @@
         <v>65</v>
       </c>
       <c r="B49" s="4">
-        <v>37111.882547210698</v>
+        <v>37112</v>
       </c>
       <c r="C49" s="4">
-        <v>43651.674781353599</v>
+        <v>43652</v>
       </c>
       <c r="D49" s="4">
-        <v>47332.9849744534</v>
+        <v>47333</v>
       </c>
       <c r="E49" s="4">
-        <v>51144.936784130703</v>
+        <v>51145</v>
       </c>
       <c r="F49" s="4">
-        <v>55063.984373928499</v>
+        <v>55064</v>
       </c>
       <c r="G49" s="4">
-        <v>56620.153400357704</v>
+        <v>56620</v>
       </c>
       <c r="H49" s="4">
-        <v>60605.033726866001</v>
+        <v>60605</v>
       </c>
       <c r="I49" s="4">
-        <v>64534.962085552201</v>
+        <v>64535</v>
       </c>
       <c r="J49" s="4">
-        <v>77297.381306547497</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2031,31 +2028,31 @@
         <v>66</v>
       </c>
       <c r="B50" s="4">
-        <v>54303.733830859899</v>
+        <v>54304</v>
       </c>
       <c r="C50" s="4">
-        <v>63884.172648039203</v>
+        <v>63884</v>
       </c>
       <c r="D50" s="4">
-        <v>69277.091231586994</v>
+        <v>69277</v>
       </c>
       <c r="E50" s="4">
-        <v>74861.392655718606</v>
+        <v>74861</v>
       </c>
       <c r="F50" s="4">
-        <v>80602.583554666606</v>
+        <v>80603</v>
       </c>
       <c r="G50" s="4">
-        <v>82882.286275046295</v>
+        <v>82882</v>
       </c>
       <c r="H50" s="4">
-        <v>88719.918541493695</v>
+        <v>88720</v>
       </c>
       <c r="I50" s="4">
-        <v>94477.049173217107</v>
+        <v>94477</v>
       </c>
       <c r="J50" s="4">
-        <v>113173.297024578</v>
+        <v>113173</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2063,31 +2060,31 @@
         <v>67</v>
       </c>
       <c r="B51" s="4">
-        <v>54303.733830859899</v>
+        <v>54304</v>
       </c>
       <c r="C51" s="4">
-        <v>63884.172648039203</v>
+        <v>63884</v>
       </c>
       <c r="D51" s="4">
-        <v>69277.091231586994</v>
+        <v>69277</v>
       </c>
       <c r="E51" s="4">
-        <v>74861.392655718606</v>
+        <v>74861</v>
       </c>
       <c r="F51" s="4">
-        <v>80602.583554666606</v>
+        <v>80603</v>
       </c>
       <c r="G51" s="4">
-        <v>82882.286275046295</v>
+        <v>82882</v>
       </c>
       <c r="H51" s="4">
-        <v>88719.918541493695</v>
+        <v>88720</v>
       </c>
       <c r="I51" s="4">
-        <v>94477.049173217107</v>
+        <v>94477</v>
       </c>
       <c r="J51" s="4">
-        <v>113173.297024578</v>
+        <v>113173</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2095,31 +2092,31 @@
         <v>68</v>
       </c>
       <c r="B52" s="4">
-        <v>54303.733830859899</v>
+        <v>54304</v>
       </c>
       <c r="C52" s="4">
-        <v>63884.172648039203</v>
+        <v>63884</v>
       </c>
       <c r="D52" s="4">
-        <v>69277.091231586994</v>
+        <v>69277</v>
       </c>
       <c r="E52" s="4">
-        <v>74861.392655718606</v>
+        <v>74861</v>
       </c>
       <c r="F52" s="4">
-        <v>80602.583554666606</v>
+        <v>80603</v>
       </c>
       <c r="G52" s="4">
-        <v>82882.286275046295</v>
+        <v>82882</v>
       </c>
       <c r="H52" s="4">
-        <v>88719.918541493695</v>
+        <v>88720</v>
       </c>
       <c r="I52" s="4">
-        <v>94477.049173217107</v>
+        <v>94477</v>
       </c>
       <c r="J52" s="4">
-        <v>113173.297024578</v>
+        <v>113173</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2127,31 +2124,31 @@
         <v>69</v>
       </c>
       <c r="B53" s="4">
-        <v>54303.733830859899</v>
+        <v>54304</v>
       </c>
       <c r="C53" s="4">
-        <v>63884.172648039203</v>
+        <v>63884</v>
       </c>
       <c r="D53" s="4">
-        <v>69277.091231586994</v>
+        <v>69277</v>
       </c>
       <c r="E53" s="4">
-        <v>74861.392655718606</v>
+        <v>74861</v>
       </c>
       <c r="F53" s="4">
-        <v>80602.583554666606</v>
+        <v>80603</v>
       </c>
       <c r="G53" s="4">
-        <v>82882.286275046295</v>
+        <v>82882</v>
       </c>
       <c r="H53" s="4">
-        <v>88719.918541493695</v>
+        <v>88720</v>
       </c>
       <c r="I53" s="4">
-        <v>94477.049173217107</v>
+        <v>94477</v>
       </c>
       <c r="J53" s="4">
-        <v>113173.297024578</v>
+        <v>113173</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2159,31 +2156,31 @@
         <v>70</v>
       </c>
       <c r="B54" s="4">
-        <v>54303.733830859899</v>
+        <v>54304</v>
       </c>
       <c r="C54" s="4">
-        <v>63884.172648039203</v>
+        <v>63884</v>
       </c>
       <c r="D54" s="4">
-        <v>69277.091231586994</v>
+        <v>69277</v>
       </c>
       <c r="E54" s="4">
-        <v>74861.392655718606</v>
+        <v>74861</v>
       </c>
       <c r="F54" s="4">
-        <v>80602.583554666606</v>
+        <v>80603</v>
       </c>
       <c r="G54" s="4">
-        <v>82882.286275046295</v>
+        <v>82882</v>
       </c>
       <c r="H54" s="4">
-        <v>88719.918541493695</v>
+        <v>88720</v>
       </c>
       <c r="I54" s="4">
-        <v>94477.049173217107</v>
+        <v>94477</v>
       </c>
       <c r="J54" s="4">
-        <v>113173.297024578</v>
+        <v>113173</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2191,31 +2188,31 @@
         <v>71</v>
       </c>
       <c r="B55" s="4">
-        <v>79488.857987733398</v>
+        <v>79489</v>
       </c>
       <c r="C55" s="4">
-        <v>93523.678153812303</v>
+        <v>93524</v>
       </c>
       <c r="D55" s="4">
-        <v>101424.00964538001</v>
+        <v>101424</v>
       </c>
       <c r="E55" s="4">
-        <v>109604.706556708</v>
+        <v>109605</v>
       </c>
       <c r="F55" s="4">
-        <v>118015.237988878</v>
+        <v>118015</v>
       </c>
       <c r="G55" s="4">
-        <v>121354.878095475</v>
+        <v>121355</v>
       </c>
       <c r="H55" s="4">
-        <v>129906.690869267</v>
+        <v>129907</v>
       </c>
       <c r="I55" s="4">
-        <v>138340.573140294</v>
+        <v>138341</v>
       </c>
       <c r="J55" s="4">
-        <v>165729.556190189</v>
+        <v>165730</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2223,31 +2220,31 @@
         <v>72</v>
       </c>
       <c r="B56" s="4">
-        <v>79488.857987733398</v>
+        <v>79489</v>
       </c>
       <c r="C56" s="4">
-        <v>93523.678153812303</v>
+        <v>93524</v>
       </c>
       <c r="D56" s="4">
-        <v>101424.00964538001</v>
+        <v>101424</v>
       </c>
       <c r="E56" s="4">
-        <v>109604.706556708</v>
+        <v>109605</v>
       </c>
       <c r="F56" s="4">
-        <v>118015.237988878</v>
+        <v>118015</v>
       </c>
       <c r="G56" s="4">
-        <v>121354.878095475</v>
+        <v>121355</v>
       </c>
       <c r="H56" s="4">
-        <v>129906.690869267</v>
+        <v>129907</v>
       </c>
       <c r="I56" s="4">
-        <v>138340.573140294</v>
+        <v>138341</v>
       </c>
       <c r="J56" s="4">
-        <v>165729.556190189</v>
+        <v>165730</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2255,31 +2252,31 @@
         <v>73</v>
       </c>
       <c r="B57" s="4">
-        <v>79488.857987733398</v>
+        <v>79489</v>
       </c>
       <c r="C57" s="4">
-        <v>93523.678153812303</v>
+        <v>93524</v>
       </c>
       <c r="D57" s="4">
-        <v>101424.00964538001</v>
+        <v>101424</v>
       </c>
       <c r="E57" s="4">
-        <v>109604.706556708</v>
+        <v>109605</v>
       </c>
       <c r="F57" s="4">
-        <v>118015.237988878</v>
+        <v>118015</v>
       </c>
       <c r="G57" s="4">
-        <v>121354.878095475</v>
+        <v>121355</v>
       </c>
       <c r="H57" s="4">
-        <v>129906.690869267</v>
+        <v>129907</v>
       </c>
       <c r="I57" s="4">
-        <v>138340.573140294</v>
+        <v>138341</v>
       </c>
       <c r="J57" s="4">
-        <v>165729.556190189</v>
+        <v>165730</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2287,31 +2284,31 @@
         <v>74</v>
       </c>
       <c r="B58" s="4">
-        <v>79488.857987733398</v>
+        <v>79489</v>
       </c>
       <c r="C58" s="4">
-        <v>93523.678153812303</v>
+        <v>93524</v>
       </c>
       <c r="D58" s="4">
-        <v>101424.00964538001</v>
+        <v>101424</v>
       </c>
       <c r="E58" s="4">
-        <v>109604.706556708</v>
+        <v>109605</v>
       </c>
       <c r="F58" s="4">
-        <v>118015.237988878</v>
+        <v>118015</v>
       </c>
       <c r="G58" s="4">
-        <v>121354.878095475</v>
+        <v>121355</v>
       </c>
       <c r="H58" s="4">
-        <v>129906.690869267</v>
+        <v>129907</v>
       </c>
       <c r="I58" s="4">
-        <v>138340.573140294</v>
+        <v>138341</v>
       </c>
       <c r="J58" s="4">
-        <v>165729.556190189</v>
+        <v>165730</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2319,31 +2316,31 @@
         <v>75</v>
       </c>
       <c r="B59" s="4">
-        <v>79488.857987733398</v>
+        <v>79489</v>
       </c>
       <c r="C59" s="4">
-        <v>93523.678153812303</v>
+        <v>93524</v>
       </c>
       <c r="D59" s="4">
-        <v>101424.00964538001</v>
+        <v>101424</v>
       </c>
       <c r="E59" s="4">
-        <v>109604.706556708</v>
+        <v>109605</v>
       </c>
       <c r="F59" s="4">
-        <v>118015.237988878</v>
+        <v>118015</v>
       </c>
       <c r="G59" s="4">
-        <v>121354.878095475</v>
+        <v>121355</v>
       </c>
       <c r="H59" s="4">
-        <v>129906.690869267</v>
+        <v>129907</v>
       </c>
       <c r="I59" s="4">
-        <v>138340.573140294</v>
+        <v>138341</v>
       </c>
       <c r="J59" s="4">
-        <v>165729.556190189</v>
+        <v>165730</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2351,31 +2348,31 @@
         <v>76</v>
       </c>
       <c r="B60" s="4">
-        <v>116383.690797298</v>
+        <v>116384</v>
       </c>
       <c r="C60" s="4">
-        <v>136943.936612027</v>
+        <v>136944</v>
       </c>
       <c r="D60" s="4">
-        <v>148517.49121139801</v>
+        <v>148517</v>
       </c>
       <c r="E60" s="4">
-        <v>160501.765854205</v>
+        <v>160502</v>
       </c>
       <c r="F60" s="4">
-        <v>172822.73553045801</v>
+        <v>172823</v>
       </c>
       <c r="G60" s="4">
-        <v>177715.12607852599</v>
+        <v>177715</v>
       </c>
       <c r="H60" s="4">
-        <v>190243.06521205799</v>
+        <v>190243</v>
       </c>
       <c r="I60" s="4">
-        <v>202598.24259323301</v>
+        <v>202598</v>
       </c>
       <c r="J60" s="4">
-        <v>242721.60844029399</v>
+        <v>242722</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2383,31 +2380,31 @@
         <v>77</v>
       </c>
       <c r="B61" s="4">
-        <v>116383.690797298</v>
+        <v>116384</v>
       </c>
       <c r="C61" s="4">
-        <v>136943.936612027</v>
+        <v>136944</v>
       </c>
       <c r="D61" s="4">
-        <v>148517.49121139801</v>
+        <v>148517</v>
       </c>
       <c r="E61" s="4">
-        <v>160501.765854205</v>
+        <v>160502</v>
       </c>
       <c r="F61" s="4">
-        <v>172822.73553045801</v>
+        <v>172823</v>
       </c>
       <c r="G61" s="4">
-        <v>177715.12607852599</v>
+        <v>177715</v>
       </c>
       <c r="H61" s="4">
-        <v>190243.06521205799</v>
+        <v>190243</v>
       </c>
       <c r="I61" s="4">
-        <v>202598.24259323301</v>
+        <v>202598</v>
       </c>
       <c r="J61" s="4">
-        <v>242721.60844029399</v>
+        <v>242722</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2415,31 +2412,31 @@
         <v>78</v>
       </c>
       <c r="B62" s="4">
-        <v>116383.690797298</v>
+        <v>116384</v>
       </c>
       <c r="C62" s="4">
-        <v>136943.936612027</v>
+        <v>136944</v>
       </c>
       <c r="D62" s="4">
-        <v>148517.49121139801</v>
+        <v>148517</v>
       </c>
       <c r="E62" s="4">
-        <v>160501.765854205</v>
+        <v>160502</v>
       </c>
       <c r="F62" s="4">
-        <v>172822.73553045801</v>
+        <v>172823</v>
       </c>
       <c r="G62" s="4">
-        <v>177715.12607852599</v>
+        <v>177715</v>
       </c>
       <c r="H62" s="4">
-        <v>190243.06521205799</v>
+        <v>190243</v>
       </c>
       <c r="I62" s="4">
-        <v>202598.24259323301</v>
+        <v>202598</v>
       </c>
       <c r="J62" s="4">
-        <v>242721.60844029399</v>
+        <v>242722</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2447,31 +2444,31 @@
         <v>79</v>
       </c>
       <c r="B63" s="4">
-        <v>116383.690797298</v>
+        <v>116384</v>
       </c>
       <c r="C63" s="4">
-        <v>136943.936612027</v>
+        <v>136944</v>
       </c>
       <c r="D63" s="4">
-        <v>148517.49121139801</v>
+        <v>148517</v>
       </c>
       <c r="E63" s="4">
-        <v>160501.765854205</v>
+        <v>160502</v>
       </c>
       <c r="F63" s="4">
-        <v>172822.73553045801</v>
+        <v>172823</v>
       </c>
       <c r="G63" s="4">
-        <v>177715.12607852599</v>
+        <v>177715</v>
       </c>
       <c r="H63" s="4">
-        <v>190243.06521205799</v>
+        <v>190243</v>
       </c>
       <c r="I63" s="4">
-        <v>202598.24259323301</v>
+        <v>202598</v>
       </c>
       <c r="J63" s="4">
-        <v>242721.60844029399</v>
+        <v>242722</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2479,31 +2476,31 @@
         <v>80</v>
       </c>
       <c r="B64" s="4">
-        <v>116383.690797298</v>
+        <v>116384</v>
       </c>
       <c r="C64" s="4">
-        <v>136943.936612027</v>
+        <v>136944</v>
       </c>
       <c r="D64" s="4">
-        <v>148517.49121139801</v>
+        <v>148517</v>
       </c>
       <c r="E64" s="4">
-        <v>160501.765854205</v>
+        <v>160502</v>
       </c>
       <c r="F64" s="4">
-        <v>172822.73553045801</v>
+        <v>172823</v>
       </c>
       <c r="G64" s="4">
-        <v>177715.12607852599</v>
+        <v>177715</v>
       </c>
       <c r="H64" s="4">
-        <v>190243.06521205799</v>
+        <v>190243</v>
       </c>
       <c r="I64" s="4">
-        <v>202598.24259323301</v>
+        <v>202598</v>
       </c>
       <c r="J64" s="4">
-        <v>242721.60844029399</v>
+        <v>242722</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2511,31 +2508,31 @@
         <v>2</v>
       </c>
       <c r="B65" s="4">
-        <v>170432.607910705</v>
+        <v>170433</v>
       </c>
       <c r="C65" s="4">
-        <v>200552.24627869501</v>
+        <v>200552</v>
       </c>
       <c r="D65" s="4">
-        <v>217506.87232288101</v>
+        <v>217507</v>
       </c>
       <c r="E65" s="4">
-        <v>235063.18082214199</v>
+        <v>235063</v>
       </c>
       <c r="F65" s="4">
-        <v>253112.72917558899</v>
+        <v>253113</v>
       </c>
       <c r="G65" s="4">
-        <v>260279.814403589</v>
+        <v>260280</v>
       </c>
       <c r="H65" s="4">
-        <v>278632.56171986199</v>
+        <v>278633</v>
       </c>
       <c r="I65" s="4">
-        <v>296732.22249467397</v>
+        <v>296732</v>
       </c>
       <c r="J65" s="4">
-        <v>355510.76436183002</v>
+        <v>355511</v>
       </c>
     </row>
   </sheetData>
